--- a/육군.xlsx
+++ b/육군.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeki\OneDrive\Documents\GitHub\kihun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE6AE03-BFFF-4814-BEDD-5DC7C8D173A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9849664F-82BC-4D5B-937D-9EBFE0B00367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0938894E-A14A-4EB6-8C2C-CBEDCA192F04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0938894E-A14A-4EB6-8C2C-CBEDCA192F04}"/>
   </bookViews>
   <sheets>
     <sheet name="합격점수" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
+    <sheet name="수송운용" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">합격점수!$A$1:$D$667</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">합격점수!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="143">
   <si>
     <t>군사특기명</t>
   </si>
@@ -482,12 +486,34 @@
     <t>23년1월입영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>23년1월입영</t>
+  </si>
+  <si>
+    <t>23년2월입영</t>
+  </si>
+  <si>
+    <t>23년3월입영</t>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>열 레이블</t>
+  </si>
+  <si>
+    <t>합계 : 총점</t>
+  </si>
+  <si>
+    <t>입영월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,21 +529,51 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -526,15 +582,128 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -545,6 +714,4437 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="이기훈" refreshedDate="45068.977418865739" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="666" xr:uid="{2DCF24C3-63E4-44EC-B867-8A8A4CBBDE86}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D667" sheet="합격점수"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="입영월" numFmtId="0">
+      <sharedItems count="8">
+        <s v="23년1월입영"/>
+        <s v="23년2월입영"/>
+        <s v="23년3월입영"/>
+        <s v="23년4월입영"/>
+        <s v="23년5월입영"/>
+        <s v="23년6월입영"/>
+        <s v="23년7월입영"/>
+        <s v="23년8월입영"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="군사특기명" numFmtId="0">
+      <sharedItems count="114">
+        <s v="K-21보병전투차량부대정비"/>
+        <s v="K239포병"/>
+        <s v="K-53계열차량운전"/>
+        <s v="K-55자주포조종"/>
+        <s v="K-9자주포조종"/>
+        <s v="K계열전차부대정비"/>
+        <s v="K계열전차승무"/>
+        <s v="M/A포병"/>
+        <s v="MW운용/정비"/>
+        <s v="M계열전차승무"/>
+        <s v="감시장비운용"/>
+        <s v="견인차량운전"/>
+        <s v="공병장비부대정비"/>
+        <s v="교환시설운용/정비"/>
+        <s v="구난차량운전"/>
+        <s v="군사경찰"/>
+        <s v="군사정보"/>
+        <s v="네트워크운용/정비"/>
+        <s v="무선장비정비"/>
+        <s v="무선전송장비운용/정비"/>
+        <s v="물자근무지원"/>
+        <s v="발전기운용/정비"/>
+        <s v="발전기정비"/>
+        <s v="발칸운용/정비"/>
+        <s v="방공레이더운용/정비"/>
+        <s v="방공작전통제"/>
+        <s v="배관/기계설비"/>
+        <s v="비호운용/정비"/>
+        <s v="사격지휘"/>
+        <s v="선박운용"/>
+        <s v="소방장비"/>
+        <s v="수송운용(차량운전)"/>
+        <s v="수의"/>
+        <s v="신호정보/전자전운용"/>
+        <s v="야전건설"/>
+        <s v="연료관리"/>
+        <s v="연막"/>
+        <s v="영상제작"/>
+        <s v="영현등록"/>
+        <s v="오리콘운용/정비"/>
+        <s v="용접/기계공작"/>
+        <s v="유선장비정비"/>
+        <s v="의무보급"/>
+        <s v="이동통신장비운용/정비"/>
+        <s v="일반의무"/>
+        <s v="장갑차부대정비"/>
+        <s v="장갑차조종"/>
+        <s v="장비수리부속공구보급"/>
+        <s v="재정회계"/>
+        <s v="전기설비"/>
+        <s v="전문간호"/>
+        <s v="전술C4I운용/정비"/>
+        <s v="전술통신장비운용/정비"/>
+        <s v="전장이동통제"/>
+        <s v="전차정비"/>
+        <s v="정보체계운용/정비"/>
+        <s v="정수장비운용"/>
+        <s v="조리"/>
+        <s v="지게차운전"/>
+        <s v="지원보급"/>
+        <s v="차량부대정비"/>
+        <s v="차량정비"/>
+        <s v="차륜형장갑차운전"/>
+        <s v="천마운용/정비"/>
+        <s v="총기정비"/>
+        <s v="크레인운용"/>
+        <s v="크레인차량운전"/>
+        <s v="탄약관리"/>
+        <s v="특수통신장비정비"/>
+        <s v="편성보급"/>
+        <s v="포병레이더"/>
+        <s v="포병측지"/>
+        <s v="항공운항/관제"/>
+        <s v="항만운용"/>
+        <s v="현무포병"/>
+        <s v="화생방"/>
+        <s v="화생방장비정비"/>
+        <s v="화생방정찰"/>
+        <s v="화생방제독"/>
+        <s v="화포정비"/>
+        <s v="휴대용유도무기운용/정비"/>
+        <s v="K-21보병전투차량승무"/>
+        <s v="공기압축기운용"/>
+        <s v="공병장비정비"/>
+        <s v="굴착기운용"/>
+        <s v="기동헬기운용"/>
+        <s v="다목적굴착기운전"/>
+        <s v="도하장비조종"/>
+        <s v="땅굴탐지"/>
+        <s v="레이다운용/정비"/>
+        <s v="로더운전"/>
+        <s v="위성운용/정비"/>
+        <s v="의무장비정비"/>
+        <s v="전문물리치료"/>
+        <s v="전문약제"/>
+        <s v="전문임상병리"/>
+        <s v="정보통신망관리장비운용/정비"/>
+        <s v="천호운용/정비"/>
+        <s v="M계열전차부대정비"/>
+        <s v="감시장비정비"/>
+        <s v="공격헬기정비"/>
+        <s v="광학기재정비"/>
+        <s v="로켓무기정비"/>
+        <s v="수송운용(중졸)"/>
+        <s v="용접/기계공작(중졸)"/>
+        <s v="자주포야전정비"/>
+        <s v="장갑전투도저운전"/>
+        <s v="장갑차야전정비"/>
+        <s v="전문방사선촬영"/>
+        <s v="전문치과"/>
+        <s v="전차통신정비"/>
+        <s v="선박운용(중졸)"/>
+        <s v="조리(중졸)"/>
+        <s v="전기설비(중졸)"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="입영부대" numFmtId="0">
+      <sharedItems count="10">
+        <s v="육군훈련소"/>
+        <s v="1사단"/>
+        <s v="25사단"/>
+        <s v="28사단"/>
+        <s v="3사단"/>
+        <s v="51사단"/>
+        <s v="55사단"/>
+        <s v="5사단"/>
+        <s v="6사단"/>
+        <s v="9사단"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="총점" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="111"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="666">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="3"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="4"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="5"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="6"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="7"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="8"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="9"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="33"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="34"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="35"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="36"/>
+    <x v="0"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="37"/>
+    <x v="0"/>
+    <n v="81"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="38"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="39"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="40"/>
+    <x v="0"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="41"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="42"/>
+    <x v="0"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="43"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="44"/>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="45"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="46"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="47"/>
+    <x v="0"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="48"/>
+    <x v="0"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="49"/>
+    <x v="0"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="50"/>
+    <x v="0"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="51"/>
+    <x v="0"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="52"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="53"/>
+    <x v="0"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="54"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="55"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="57"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="58"/>
+    <x v="0"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="59"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="60"/>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="61"/>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="62"/>
+    <x v="0"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="64"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="65"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="66"/>
+    <x v="0"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="67"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="68"/>
+    <x v="0"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="69"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="70"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="71"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="72"/>
+    <x v="0"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="73"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="74"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="75"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="76"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="77"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="78"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="79"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="80"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="81"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="82"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="83"/>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="84"/>
+    <x v="0"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="85"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="86"/>
+    <x v="0"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="87"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="88"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="89"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="90"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="83"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="106"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="3"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="4"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="5"/>
+    <n v="106"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="6"/>
+    <n v="107"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="7"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="8"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="9"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="33"/>
+    <x v="0"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="34"/>
+    <x v="0"/>
+    <n v="78"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="35"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <x v="0"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="91"/>
+    <x v="0"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="41"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="92"/>
+    <x v="0"/>
+    <n v="91"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="43"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="46"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="48"/>
+    <x v="0"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="93"/>
+    <x v="0"/>
+    <n v="76"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="94"/>
+    <x v="0"/>
+    <n v="82"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="95"/>
+    <x v="0"/>
+    <n v="82"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="51"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="52"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="55"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="96"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="57"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="59"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="60"/>
+    <x v="0"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="62"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <x v="0"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="65"/>
+    <x v="0"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="67"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="70"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="73"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="74"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="75"/>
+    <x v="0"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="76"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="78"/>
+    <x v="0"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="80"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="81"/>
+    <x v="0"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="91"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="98"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="99"/>
+    <x v="0"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="100"/>
+    <x v="0"/>
+    <n v="76"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="82"/>
+    <x v="0"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="83"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="101"/>
+    <x v="0"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="84"/>
+    <x v="0"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="85"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="87"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="89"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="102"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="103"/>
+    <x v="0"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="106"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="3"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="4"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="5"/>
+    <n v="108"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="6"/>
+    <n v="110"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="7"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="8"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="9"/>
+    <n v="107"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="33"/>
+    <x v="0"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="35"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="37"/>
+    <x v="0"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="40"/>
+    <x v="0"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="91"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="41"/>
+    <x v="0"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="92"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="43"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="44"/>
+    <x v="0"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="45"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="46"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="47"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="50"/>
+    <x v="0"/>
+    <n v="76"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="51"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="52"/>
+    <x v="0"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="53"/>
+    <x v="0"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="55"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="96"/>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="57"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="58"/>
+    <x v="0"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="59"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="60"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="64"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="65"/>
+    <x v="0"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="66"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="67"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="69"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="70"/>
+    <x v="0"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="71"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="72"/>
+    <x v="0"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="73"/>
+    <x v="0"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="74"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="75"/>
+    <x v="0"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="76"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="77"/>
+    <x v="0"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="78"/>
+    <x v="0"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="81"/>
+    <x v="0"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="99"/>
+    <x v="0"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="82"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="83"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="101"/>
+    <x v="0"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="85"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="89"/>
+    <x v="0"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="90"/>
+    <x v="0"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="76"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="103"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="107"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="31"/>
+    <x v="3"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="31"/>
+    <x v="4"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="31"/>
+    <x v="5"/>
+    <n v="109"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="31"/>
+    <x v="6"/>
+    <n v="110"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="31"/>
+    <x v="7"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="31"/>
+    <x v="8"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="31"/>
+    <x v="9"/>
+    <n v="107"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="33"/>
+    <x v="0"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="35"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="38"/>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="39"/>
+    <x v="0"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="40"/>
+    <x v="0"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="104"/>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="91"/>
+    <x v="0"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="41"/>
+    <x v="0"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="92"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="43"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="44"/>
+    <x v="0"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="105"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="106"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="45"/>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="107"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="46"/>
+    <x v="0"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="47"/>
+    <x v="0"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="48"/>
+    <x v="0"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="49"/>
+    <x v="0"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="93"/>
+    <x v="0"/>
+    <n v="78"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="108"/>
+    <x v="0"/>
+    <n v="76"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="94"/>
+    <x v="0"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="95"/>
+    <x v="0"/>
+    <n v="71"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="109"/>
+    <x v="0"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="51"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="52"/>
+    <x v="0"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="54"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="110"/>
+    <x v="0"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="55"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="96"/>
+    <x v="0"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="57"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="58"/>
+    <x v="0"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="59"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="60"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="61"/>
+    <x v="0"/>
+    <n v="82"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="62"/>
+    <x v="0"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="64"/>
+    <x v="0"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="65"/>
+    <x v="0"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="67"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="69"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="70"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="71"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="73"/>
+    <x v="0"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="74"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="76"/>
+    <x v="0"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="78"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="79"/>
+    <x v="0"/>
+    <n v="78"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="80"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="99"/>
+    <x v="0"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="82"/>
+    <x v="0"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="83"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="101"/>
+    <x v="0"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="85"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="86"/>
+    <x v="0"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="87"/>
+    <x v="0"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="88"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="89"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="90"/>
+    <x v="0"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="71"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="78"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="111"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="107"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="31"/>
+    <x v="3"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="31"/>
+    <x v="4"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="31"/>
+    <x v="5"/>
+    <n v="108"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="31"/>
+    <x v="6"/>
+    <n v="110"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="31"/>
+    <x v="7"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="31"/>
+    <x v="8"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="31"/>
+    <x v="9"/>
+    <n v="107"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="33"/>
+    <x v="0"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="35"/>
+    <x v="0"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="40"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="91"/>
+    <x v="0"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="41"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="43"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="44"/>
+    <x v="0"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="45"/>
+    <x v="0"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="46"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="47"/>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="49"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="50"/>
+    <x v="0"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="51"/>
+    <x v="0"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="52"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="53"/>
+    <x v="0"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="54"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="55"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="96"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="57"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="112"/>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="58"/>
+    <x v="0"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="59"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="60"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="61"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="62"/>
+    <x v="0"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="64"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="65"/>
+    <x v="0"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="66"/>
+    <x v="0"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="67"/>
+    <x v="0"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="69"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="70"/>
+    <x v="0"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="71"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="73"/>
+    <x v="0"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="74"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="76"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="77"/>
+    <x v="0"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="78"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="79"/>
+    <x v="0"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="80"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="81"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="81"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="82"/>
+    <x v="0"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="85"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="87"/>
+    <x v="0"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="89"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="90"/>
+    <x v="0"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="103"/>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="3"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="5"/>
+    <n v="106"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="6"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="7"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="8"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="9"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="33"/>
+    <x v="0"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="40"/>
+    <x v="0"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="91"/>
+    <x v="0"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="92"/>
+    <x v="0"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="43"/>
+    <x v="0"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="44"/>
+    <x v="0"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="45"/>
+    <x v="0"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="46"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="47"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="49"/>
+    <x v="0"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="93"/>
+    <x v="0"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="108"/>
+    <x v="0"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="94"/>
+    <x v="0"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="95"/>
+    <x v="0"/>
+    <n v="78"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="109"/>
+    <x v="0"/>
+    <n v="71"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="51"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="52"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="55"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="57"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="59"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="60"/>
+    <x v="0"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="62"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="97"/>
+    <x v="0"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="64"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="65"/>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="67"/>
+    <x v="0"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="69"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="70"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="71"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="74"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="78"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="80"/>
+    <x v="0"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="81"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="99"/>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="82"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="101"/>
+    <x v="0"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="85"/>
+    <x v="0"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="88"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="89"/>
+    <x v="0"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="82"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="3"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="4"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="6"/>
+    <n v="111"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="7"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="8"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="9"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="33"/>
+    <x v="0"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="35"/>
+    <x v="0"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="38"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="39"/>
+    <x v="0"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="40"/>
+    <x v="0"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="91"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="41"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="43"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="44"/>
+    <x v="0"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="105"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="106"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="45"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="107"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="46"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="47"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="48"/>
+    <x v="0"/>
+    <n v="81"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="49"/>
+    <x v="0"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="113"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="50"/>
+    <x v="0"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="51"/>
+    <x v="0"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="52"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="53"/>
+    <x v="0"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="110"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="55"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="96"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="57"/>
+    <x v="0"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="58"/>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="59"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="60"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="61"/>
+    <x v="0"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="62"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="64"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="65"/>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="66"/>
+    <x v="0"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="67"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="68"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="69"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="70"/>
+    <x v="0"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="71"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="72"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="73"/>
+    <x v="0"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="74"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="76"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="77"/>
+    <x v="0"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="78"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="79"/>
+    <x v="0"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="80"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="81"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="82"/>
+    <x v="0"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="83"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="86"/>
+    <x v="0"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="87"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="89"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="31"/>
+    <x v="3"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="31"/>
+    <x v="4"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="31"/>
+    <x v="5"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="31"/>
+    <x v="6"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="31"/>
+    <x v="7"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="31"/>
+    <x v="8"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="31"/>
+    <x v="9"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="33"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="35"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="40"/>
+    <x v="0"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="91"/>
+    <x v="0"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="42"/>
+    <x v="0"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="92"/>
+    <x v="0"/>
+    <n v="83"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="43"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="45"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="46"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="47"/>
+    <x v="0"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="48"/>
+    <x v="0"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="49"/>
+    <x v="0"/>
+    <n v="91"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="93"/>
+    <x v="0"/>
+    <n v="83"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="108"/>
+    <x v="0"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="94"/>
+    <x v="0"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="95"/>
+    <x v="0"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="109"/>
+    <x v="0"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="51"/>
+    <x v="0"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="52"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="53"/>
+    <x v="0"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="54"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="55"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="96"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="57"/>
+    <x v="0"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="112"/>
+    <x v="0"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="58"/>
+    <x v="0"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="59"/>
+    <x v="0"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="61"/>
+    <x v="0"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="65"/>
+    <x v="0"/>
+    <n v="67"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="67"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="69"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="70"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="71"/>
+    <x v="0"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="72"/>
+    <x v="0"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="73"/>
+    <x v="0"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="74"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="78"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13BFEC16-9ABD-4BDD-8108-6EDFE5E5C11E}" name="피벗 테이블1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="입영월">
+  <location ref="A3:L13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="115">
+        <item h="1" x="0"/>
+        <item h="1" x="81"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="98"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="99"/>
+        <item h="1" x="11"/>
+        <item h="1" x="100"/>
+        <item h="1" x="82"/>
+        <item h="1" x="12"/>
+        <item h="1" x="83"/>
+        <item h="1" x="101"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="84"/>
+        <item h="1" x="85"/>
+        <item h="1" x="17"/>
+        <item h="1" x="86"/>
+        <item h="1" x="87"/>
+        <item h="1" x="88"/>
+        <item h="1" x="89"/>
+        <item h="1" x="90"/>
+        <item h="1" x="102"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item h="1" x="25"/>
+        <item h="1" x="26"/>
+        <item h="1" x="27"/>
+        <item h="1" x="28"/>
+        <item h="1" x="29"/>
+        <item h="1" x="111"/>
+        <item h="1" x="30"/>
+        <item h="1" x="103"/>
+        <item x="31"/>
+        <item h="1" x="32"/>
+        <item h="1" x="33"/>
+        <item h="1" x="34"/>
+        <item h="1" x="35"/>
+        <item h="1" x="36"/>
+        <item h="1" x="37"/>
+        <item h="1" x="38"/>
+        <item h="1" x="39"/>
+        <item h="1" x="40"/>
+        <item h="1" x="104"/>
+        <item h="1" x="91"/>
+        <item h="1" x="41"/>
+        <item h="1" x="42"/>
+        <item h="1" x="92"/>
+        <item h="1" x="43"/>
+        <item h="1" x="44"/>
+        <item h="1" x="105"/>
+        <item h="1" x="106"/>
+        <item h="1" x="45"/>
+        <item h="1" x="107"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="113"/>
+        <item h="1" x="50"/>
+        <item h="1" x="93"/>
+        <item h="1" x="108"/>
+        <item h="1" x="94"/>
+        <item h="1" x="95"/>
+        <item h="1" x="109"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="110"/>
+        <item h="1" x="55"/>
+        <item h="1" x="96"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="112"/>
+        <item h="1" x="58"/>
+        <item h="1" x="59"/>
+        <item h="1" x="60"/>
+        <item h="1" x="61"/>
+        <item h="1" x="62"/>
+        <item h="1" x="63"/>
+        <item h="1" x="97"/>
+        <item h="1" x="64"/>
+        <item h="1" x="65"/>
+        <item h="1" x="66"/>
+        <item h="1" x="67"/>
+        <item h="1" x="68"/>
+        <item h="1" x="69"/>
+        <item h="1" x="70"/>
+        <item h="1" x="71"/>
+        <item h="1" x="72"/>
+        <item h="1" x="73"/>
+        <item h="1" x="74"/>
+        <item h="1" x="75"/>
+        <item h="1" x="76"/>
+        <item h="1" x="77"/>
+        <item h="1" x="78"/>
+        <item h="1" x="79"/>
+        <item h="1" x="80"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="11">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="합계 : 총점" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0"/>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -846,8 +5446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8410A5-0099-4394-88CA-4E18D490FDC7}">
   <dimension ref="A1:D667"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10210,13 +14810,752 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501682E2-8052-4374-8A3E-41B67F3E2C70}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2C74C5-C214-4EBE-ADD6-E2B6917479AC}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.375" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" hidden="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1"/>
+    <row r="3" spans="1:12" hidden="1">
+      <c r="A3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="7">
+        <v>102</v>
+      </c>
+      <c r="C5" s="7">
+        <v>99</v>
+      </c>
+      <c r="D5" s="7">
+        <v>97</v>
+      </c>
+      <c r="E5" s="7">
+        <v>97</v>
+      </c>
+      <c r="F5" s="7">
+        <v>104</v>
+      </c>
+      <c r="G5" s="7">
+        <v>104</v>
+      </c>
+      <c r="H5" s="7">
+        <v>97</v>
+      </c>
+      <c r="I5" s="7">
+        <v>97</v>
+      </c>
+      <c r="J5" s="7">
+        <v>101</v>
+      </c>
+      <c r="K5" s="7">
+        <v>98</v>
+      </c>
+      <c r="L5" s="3">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="7">
+        <v>106</v>
+      </c>
+      <c r="C6" s="7">
+        <v>101</v>
+      </c>
+      <c r="D6" s="7">
+        <v>100</v>
+      </c>
+      <c r="E6" s="7">
+        <v>99</v>
+      </c>
+      <c r="F6" s="7">
+        <v>106</v>
+      </c>
+      <c r="G6" s="7">
+        <v>107</v>
+      </c>
+      <c r="H6" s="7">
+        <v>100</v>
+      </c>
+      <c r="I6" s="7">
+        <v>99</v>
+      </c>
+      <c r="J6" s="7">
+        <v>103</v>
+      </c>
+      <c r="K6" s="7">
+        <v>100</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="7">
+        <v>106</v>
+      </c>
+      <c r="C7" s="7">
+        <v>104</v>
+      </c>
+      <c r="D7" s="7">
+        <v>103</v>
+      </c>
+      <c r="E7" s="7">
+        <v>101</v>
+      </c>
+      <c r="F7" s="7">
+        <v>108</v>
+      </c>
+      <c r="G7" s="7">
+        <v>110</v>
+      </c>
+      <c r="H7" s="7">
+        <v>103</v>
+      </c>
+      <c r="I7" s="7">
+        <v>101</v>
+      </c>
+      <c r="J7" s="7">
+        <v>107</v>
+      </c>
+      <c r="K7" s="7">
+        <v>101</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="7">
+        <v>107</v>
+      </c>
+      <c r="C8" s="7">
+        <v>105</v>
+      </c>
+      <c r="D8" s="7">
+        <v>104</v>
+      </c>
+      <c r="E8" s="7">
+        <v>101</v>
+      </c>
+      <c r="F8" s="7">
+        <v>109</v>
+      </c>
+      <c r="G8" s="7">
+        <v>110</v>
+      </c>
+      <c r="H8" s="7">
+        <v>104</v>
+      </c>
+      <c r="I8" s="7">
+        <v>102</v>
+      </c>
+      <c r="J8" s="7">
+        <v>107</v>
+      </c>
+      <c r="K8" s="7">
+        <v>103</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="7">
+        <v>107</v>
+      </c>
+      <c r="C9" s="7">
+        <v>105</v>
+      </c>
+      <c r="D9" s="7">
+        <v>103</v>
+      </c>
+      <c r="E9" s="7">
+        <v>101</v>
+      </c>
+      <c r="F9" s="7">
+        <v>108</v>
+      </c>
+      <c r="G9" s="7">
+        <v>110</v>
+      </c>
+      <c r="H9" s="7">
+        <v>104</v>
+      </c>
+      <c r="I9" s="7">
+        <v>102</v>
+      </c>
+      <c r="J9" s="7">
+        <v>107</v>
+      </c>
+      <c r="K9" s="7">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="7">
+        <v>102</v>
+      </c>
+      <c r="C10" s="7">
+        <v>102</v>
+      </c>
+      <c r="D10" s="7">
+        <v>100</v>
+      </c>
+      <c r="E10" s="7">
+        <v>99</v>
+      </c>
+      <c r="F10" s="7">
+        <v>106</v>
+      </c>
+      <c r="G10" s="7">
+        <v>105</v>
+      </c>
+      <c r="H10" s="7">
+        <v>102</v>
+      </c>
+      <c r="I10" s="7">
+        <v>98</v>
+      </c>
+      <c r="J10" s="7">
+        <v>104</v>
+      </c>
+      <c r="K10" s="7">
+        <v>99</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="7">
+        <v>104</v>
+      </c>
+      <c r="C11" s="7">
+        <v>97</v>
+      </c>
+      <c r="D11" s="7">
+        <v>100</v>
+      </c>
+      <c r="E11" s="7">
+        <v>93</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
+        <v>111</v>
+      </c>
+      <c r="H11" s="7">
+        <v>96</v>
+      </c>
+      <c r="I11" s="7">
+        <v>93</v>
+      </c>
+      <c r="J11" s="7">
+        <v>105</v>
+      </c>
+      <c r="K11" s="7">
+        <v>93</v>
+      </c>
+      <c r="L11" s="3">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="7">
+        <v>103</v>
+      </c>
+      <c r="C12" s="7">
+        <v>98</v>
+      </c>
+      <c r="D12" s="7">
+        <v>95</v>
+      </c>
+      <c r="E12" s="7">
+        <v>93</v>
+      </c>
+      <c r="F12" s="7">
+        <v>101</v>
+      </c>
+      <c r="G12" s="7">
+        <v>102</v>
+      </c>
+      <c r="H12" s="7">
+        <v>96</v>
+      </c>
+      <c r="I12" s="7">
+        <v>93</v>
+      </c>
+      <c r="J12" s="7">
+        <v>104</v>
+      </c>
+      <c r="K12" s="7">
+        <v>95</v>
+      </c>
+      <c r="L12" s="3">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1">
+      <c r="A13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="3">
+        <v>837</v>
+      </c>
+      <c r="C13" s="3">
+        <v>811</v>
+      </c>
+      <c r="D13" s="3">
+        <v>802</v>
+      </c>
+      <c r="E13" s="3">
+        <v>784</v>
+      </c>
+      <c r="F13" s="3">
+        <v>742</v>
+      </c>
+      <c r="G13" s="3">
+        <v>859</v>
+      </c>
+      <c r="H13" s="3">
+        <v>802</v>
+      </c>
+      <c r="I13" s="3">
+        <v>785</v>
+      </c>
+      <c r="J13" s="3">
+        <v>838</v>
+      </c>
+      <c r="K13" s="3">
+        <v>789</v>
+      </c>
+      <c r="L13" s="3">
+        <v>8049</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501682E2-8052-4374-8A3E-41B67F3E2C70}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="7">
+        <v>102</v>
+      </c>
+      <c r="C2" s="7">
+        <v>99</v>
+      </c>
+      <c r="D2" s="7">
+        <v>97</v>
+      </c>
+      <c r="E2" s="7">
+        <v>97</v>
+      </c>
+      <c r="F2" s="7">
+        <v>104</v>
+      </c>
+      <c r="G2" s="7">
+        <v>104</v>
+      </c>
+      <c r="H2" s="7">
+        <v>97</v>
+      </c>
+      <c r="I2" s="7">
+        <v>97</v>
+      </c>
+      <c r="J2" s="7">
+        <v>101</v>
+      </c>
+      <c r="K2" s="7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="7">
+        <v>106</v>
+      </c>
+      <c r="C3" s="7">
+        <v>101</v>
+      </c>
+      <c r="D3" s="7">
+        <v>100</v>
+      </c>
+      <c r="E3" s="7">
+        <v>99</v>
+      </c>
+      <c r="F3" s="7">
+        <v>106</v>
+      </c>
+      <c r="G3" s="7">
+        <v>107</v>
+      </c>
+      <c r="H3" s="7">
+        <v>100</v>
+      </c>
+      <c r="I3" s="7">
+        <v>99</v>
+      </c>
+      <c r="J3" s="7">
+        <v>103</v>
+      </c>
+      <c r="K3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="7">
+        <v>106</v>
+      </c>
+      <c r="C4" s="7">
+        <v>104</v>
+      </c>
+      <c r="D4" s="7">
+        <v>103</v>
+      </c>
+      <c r="E4" s="7">
+        <v>101</v>
+      </c>
+      <c r="F4" s="7">
+        <v>108</v>
+      </c>
+      <c r="G4" s="7">
+        <v>110</v>
+      </c>
+      <c r="H4" s="7">
+        <v>103</v>
+      </c>
+      <c r="I4" s="7">
+        <v>101</v>
+      </c>
+      <c r="J4" s="7">
+        <v>107</v>
+      </c>
+      <c r="K4" s="7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="7">
+        <v>107</v>
+      </c>
+      <c r="C5" s="7">
+        <v>105</v>
+      </c>
+      <c r="D5" s="7">
+        <v>104</v>
+      </c>
+      <c r="E5" s="7">
+        <v>101</v>
+      </c>
+      <c r="F5" s="7">
+        <v>109</v>
+      </c>
+      <c r="G5" s="7">
+        <v>110</v>
+      </c>
+      <c r="H5" s="7">
+        <v>104</v>
+      </c>
+      <c r="I5" s="7">
+        <v>102</v>
+      </c>
+      <c r="J5" s="7">
+        <v>107</v>
+      </c>
+      <c r="K5" s="7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="7">
+        <v>107</v>
+      </c>
+      <c r="C6" s="7">
+        <v>105</v>
+      </c>
+      <c r="D6" s="7">
+        <v>103</v>
+      </c>
+      <c r="E6" s="7">
+        <v>101</v>
+      </c>
+      <c r="F6" s="7">
+        <v>108</v>
+      </c>
+      <c r="G6" s="7">
+        <v>110</v>
+      </c>
+      <c r="H6" s="7">
+        <v>104</v>
+      </c>
+      <c r="I6" s="7">
+        <v>102</v>
+      </c>
+      <c r="J6" s="7">
+        <v>107</v>
+      </c>
+      <c r="K6" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="7">
+        <v>102</v>
+      </c>
+      <c r="C7" s="7">
+        <v>102</v>
+      </c>
+      <c r="D7" s="7">
+        <v>100</v>
+      </c>
+      <c r="E7" s="7">
+        <v>99</v>
+      </c>
+      <c r="F7" s="7">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7">
+        <v>105</v>
+      </c>
+      <c r="H7" s="7">
+        <v>102</v>
+      </c>
+      <c r="I7" s="7">
+        <v>98</v>
+      </c>
+      <c r="J7" s="7">
+        <v>104</v>
+      </c>
+      <c r="K7" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="7">
+        <v>104</v>
+      </c>
+      <c r="C8" s="7">
+        <v>97</v>
+      </c>
+      <c r="D8" s="7">
+        <v>100</v>
+      </c>
+      <c r="E8" s="7">
+        <v>93</v>
+      </c>
+      <c r="F8" s="7">
+        <v>101</v>
+      </c>
+      <c r="G8" s="7">
+        <v>111</v>
+      </c>
+      <c r="H8" s="7">
+        <v>96</v>
+      </c>
+      <c r="I8" s="7">
+        <v>93</v>
+      </c>
+      <c r="J8" s="7">
+        <v>105</v>
+      </c>
+      <c r="K8" s="7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="7">
+        <v>103</v>
+      </c>
+      <c r="C9" s="7">
+        <v>98</v>
+      </c>
+      <c r="D9" s="7">
+        <v>95</v>
+      </c>
+      <c r="E9" s="7">
+        <v>93</v>
+      </c>
+      <c r="F9" s="7">
+        <v>101</v>
+      </c>
+      <c r="G9" s="7">
+        <v>102</v>
+      </c>
+      <c r="H9" s="7">
+        <v>96</v>
+      </c>
+      <c r="I9" s="7">
+        <v>93</v>
+      </c>
+      <c r="J9" s="7">
+        <v>104</v>
+      </c>
+      <c r="K9" s="7">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
